--- a/src/main/webapp/static/file/yjTemplate.xlsx
+++ b/src/main/webapp/static/file/yjTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>部门已建政务信息系统调查表（审计统计表）</t>
   </si>
@@ -49,15 +49,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位名称</t>
-    </r>
+    <t>单位名称</t>
   </si>
   <si>
     <t>政务信息系统名称</t>
@@ -238,9 +230,6 @@
   </si>
   <si>
     <t>联系电话</t>
-  </si>
-  <si>
-    <t>单位名称</t>
   </si>
   <si>
     <t>是否有备份</t>
@@ -296,9 +285,6 @@
     <t>companyId</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>jsyj</t>
   </si>
   <si>
@@ -649,12 +635,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1416,7 +1402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1448,12 +1434,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1463,6 +1458,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1472,15 +1473,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1496,7 +1488,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1504,12 +1499,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1832,8 +1821,8 @@
   <sheetPr/>
   <dimension ref="A1:BS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG5" workbookViewId="0">
-      <selection activeCell="AK6" sqref="$A6:$XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BH3" sqref="BH3:BQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.62962962962963" defaultRowHeight="28.05" customHeight="1" outlineLevelRow="4"/>
@@ -1989,55 +1978,55 @@
       <c r="AH2" s="9"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
-      <c r="AK2" s="18" t="s">
+      <c r="AK2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="22" t="s">
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="22"/>
-      <c r="BE2" s="24" t="s">
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="25" t="s">
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BI2" s="25"/>
-      <c r="BJ2" s="25"/>
-      <c r="BK2" s="25"/>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="28"/>
-      <c r="BS2" s="29"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="27"/>
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="27"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="32"/>
     </row>
     <row r="3" customHeight="1" spans="1:71">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -2055,71 +2044,71 @@
       <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AG3" s="19" t="s">
@@ -2134,411 +2123,493 @@
       <c r="AJ3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="20" t="s">
+      <c r="AK3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="20" t="s">
+      <c r="AL3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" s="20" t="s">
+      <c r="AM3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AN3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AO3" s="20" t="s">
+      <c r="AO3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AP3" s="20" t="s">
+      <c r="AP3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AQ3" s="23" t="s">
+      <c r="AQ3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
-      <c r="AT3" s="23" t="s">
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="23" t="s">
+      <c r="AU3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AV3" s="23" t="s">
+      <c r="AV3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AW3" s="23"/>
-      <c r="AX3" s="23"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="23" t="s">
+      <c r="AW3" s="25"/>
+      <c r="AX3" s="25"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="BA3" s="23" t="s">
+      <c r="BA3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="BB3" s="23" t="s">
+      <c r="BB3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="BC3" s="23" t="s">
+      <c r="BC3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="BD3" s="23" t="s">
+      <c r="BD3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="BE3" s="26" t="s">
+      <c r="BE3" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="26"/>
-      <c r="BH3" s="27" t="s">
+      <c r="BF3" s="28"/>
+      <c r="BG3" s="28"/>
+      <c r="BH3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BI3" s="27" t="s">
+      <c r="BI3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BJ3" s="27" t="s">
+      <c r="BJ3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="BK3" s="27" t="s">
+      <c r="BK3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="BL3" s="27" t="s">
+      <c r="BL3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="BM3" s="27" t="s">
+      <c r="BM3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="BN3" s="27" t="s">
+      <c r="BN3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BO3" s="27" t="s">
+      <c r="BO3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BP3" s="27" t="s">
+      <c r="BP3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="BQ3" s="30" t="s">
+      <c r="BQ3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="BR3" s="13" t="s">
+      <c r="BR3" s="16" t="s">
         <v>64</v>
       </c>
       <c r="BS3" s="6"/>
     </row>
     <row r="4" ht="36" customHeight="1" spans="1:71">
       <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR4" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23" t="s">
+      <c r="AW4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AW4" s="23" t="s">
+      <c r="AX4" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="AX4" s="23" t="s">
+      <c r="AY4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AY4" s="23" t="s">
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="25"/>
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="25"/>
+      <c r="BE4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23"/>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="26" t="s">
+      <c r="BF4" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="BF4" s="26" t="s">
+      <c r="BG4" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="BG4" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH4" s="27"/>
-      <c r="BI4" s="27"/>
-      <c r="BJ4" s="27"/>
-      <c r="BK4" s="27"/>
-      <c r="BL4" s="27"/>
-      <c r="BM4" s="27"/>
-      <c r="BN4" s="27"/>
-      <c r="BO4" s="27"/>
-      <c r="BP4" s="27"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="13"/>
+      <c r="BH4" s="30"/>
+      <c r="BI4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL4" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="BR4" s="16"/>
       <c r="BS4" s="6"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="13.95" customHeight="1" spans="1:70">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="F5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="G5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="H5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="I5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="J5" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="K5" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="L5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="M5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="N5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="O5" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="P5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="Q5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="R5" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="S5" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="T5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="U5" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="V5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="W5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="X5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="Y5" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="Z5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="AA5" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="AB5" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AC5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AD5" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AE5" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AF5" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="AE5" s="17" t="s">
+      <c r="AG5" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AH5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AI5" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="AH5" s="13" t="s">
+      <c r="AJ5" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="AI5" s="13" t="s">
+      <c r="AK5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AJ5" s="13" t="s">
+      <c r="AL5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="AK5" s="17" t="s">
+      <c r="AM5" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AL5" s="13" t="s">
+      <c r="AN5" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="AM5" s="13" t="s">
+      <c r="AO5" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="AN5" s="13" t="s">
+      <c r="AP5" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="AO5" s="13" t="s">
+      <c r="AQ5" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="AP5" s="13" t="s">
+      <c r="AR5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="AQ5" s="15" t="s">
+      <c r="AS5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="AR5" s="15" t="s">
+      <c r="AT5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="AS5" s="16" t="s">
+      <c r="AU5" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="AT5" s="13" t="s">
+      <c r="AV5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="AU5" s="14" t="s">
+      <c r="AW5" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="AV5" s="17" t="s">
+      <c r="AX5" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="AW5" s="13" t="s">
+      <c r="AY5" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="AX5" s="13" t="s">
+      <c r="AZ5" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="AY5" s="13" t="s">
+      <c r="BA5" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="AZ5" s="13" t="s">
+      <c r="BB5" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="BA5" s="13" t="s">
+      <c r="BC5" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="BB5" s="13" t="s">
+      <c r="BD5" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="BC5" s="13" t="s">
+      <c r="BE5" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="BD5" s="13" t="s">
+      <c r="BF5" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="BE5" s="13" t="s">
+      <c r="BG5" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="BF5" s="13" t="s">
+      <c r="BH5" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="BG5" s="13" t="s">
+      <c r="BI5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="BH5" s="13" t="s">
+      <c r="BJ5" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="BI5" s="13" t="s">
+      <c r="BK5" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="BJ5" s="13" t="s">
+      <c r="BL5" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="BK5" s="13" t="s">
+      <c r="BM5" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="BL5" s="13" t="s">
+      <c r="BN5" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="BM5" s="13" t="s">
+      <c r="BO5" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="BN5" s="13" t="s">
+      <c r="BP5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="BO5" s="13" t="s">
+      <c r="BQ5" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="BP5" s="13" t="s">
+      <c r="BR5" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="BQ5" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="BR5" s="13" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2632,180 +2703,180 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>146</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>147</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>148</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>149</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>150</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>151</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>152</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>153</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>154</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>155</v>
-      </c>
-      <c r="K2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
         <v>158</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>159</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>160</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>161</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>162</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>163</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>164</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>165</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>166</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>167</v>
-      </c>
-      <c r="K3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
         <v>170</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>171</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>172</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>173</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>174</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>175</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>176</v>
-      </c>
-      <c r="K4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" t="s">
         <v>179</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>180</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>181</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" t="s">
         <v>182</v>
       </c>
-      <c r="I5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J5" t="s">
-        <v>183</v>
-      </c>
-      <c r="K5" t="s">
-        <v>184</v>
-      </c>
       <c r="L5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" t="s">
         <v>185</v>
-      </c>
-      <c r="E6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" t="s">
-        <v>186</v>
-      </c>
-      <c r="K6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
